--- a/data/properties.xlsx
+++ b/data/properties.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/MetadataLab/LinkedArchives/Linked_Archives_Wikibase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{61D088F1-FB4A-5B48-A9D2-19E0DC9FD9CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98A4862-F63C-764D-9621-8C365AB3C6EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15740"/>
+    <workbookView xWindow="14420" yWindow="460" windowWidth="14380" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6454" uniqueCount="4309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6463" uniqueCount="4310">
   <si>
     <t>country</t>
   </si>
@@ -12960,13 +12960,16 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13105,13 +13108,6 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13465,11 +13461,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -13825,12 +13820,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D2151"/>
+  <dimension ref="A1:E2151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13842,7 +13837,7 @@
     <col min="5" max="5" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4305</v>
       </c>
@@ -13856,119 +13851,134 @@
         <v>4308</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>403</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="2">
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3">
         <v>8962</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2">
         <v>8960</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
         <v>8462</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
         <v>7410</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="E5" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3">
         <v>6762</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
         <v>6317</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2">
         <v>3647</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
         <v>3521</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>430</v>
       </c>
@@ -13982,7 +13992,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>406</v>
       </c>
@@ -13996,7 +14006,7 @@
         <v>3308</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>450</v>
       </c>
@@ -14010,91 +14020,98 @@
         <v>3090</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3">
+      <c r="C13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
         <v>2700</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2">
         <v>2280</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="2">
         <v>2074</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="E15" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="2">
         <v>2062</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="2">
         <v>1979</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>1153</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>1154</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3">
         <v>1586</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>504</v>
       </c>
@@ -14108,21 +14125,22 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
         <v>1513</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>546</v>
       </c>
@@ -14136,7 +14154,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>490</v>
       </c>
@@ -14150,21 +14168,21 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="2">
         <v>1388</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1445</v>
       </c>
@@ -14178,21 +14196,21 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2">
         <v>1241</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>440</v>
       </c>
@@ -14206,7 +14224,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>1167</v>
       </c>
@@ -14220,7 +14238,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>1025</v>
       </c>
@@ -14234,7 +14252,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>432</v>
       </c>
@@ -14248,7 +14266,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1337</v>
       </c>
@@ -14262,7 +14280,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>1195</v>
       </c>
@@ -14276,7 +14294,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1107</v>
       </c>
@@ -14290,21 +14308,21 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>1496</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D33" s="3">
+      <c r="C33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
         <v>1060</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>1207</v>
       </c>
@@ -14318,7 +14336,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>1165</v>
       </c>
@@ -14332,7 +14350,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>1123</v>
       </c>
@@ -14346,2033 +14364,2039 @@
         <v>950</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" s="3">
+      <c r="C37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="2">
         <v>934</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
+      <c r="E37" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38" s="4">
+      <c r="C38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3">
         <v>915</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>1307</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>1308</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D39" s="4">
+      <c r="C39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D39" s="3">
         <v>885</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D40" s="4">
+      <c r="C40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3">
         <v>883</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>1091</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>1092</v>
       </c>
-      <c r="C41" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D41" s="4">
+      <c r="C41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="3">
         <v>881</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>1169</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>1170</v>
       </c>
-      <c r="C42" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D42" s="4">
+      <c r="C42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3">
         <v>846</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="C43" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D43" s="4">
+      <c r="C43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="3">
         <v>835</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>1145</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>1146</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" s="4">
+      <c r="C44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3">
         <v>810</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>1522</v>
       </c>
-      <c r="C45" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" s="4">
+      <c r="C45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
         <v>767</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>1567</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>1568</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="4">
+      <c r="C46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="3">
         <v>755</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="4">
+      <c r="C47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3">
         <v>745</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>1309</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>1310</v>
       </c>
-      <c r="C48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D48" s="4">
+      <c r="C48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D48" s="3">
         <v>743</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="3" t="s">
         <v>1159</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
         <v>1160</v>
       </c>
-      <c r="C49" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D49" s="4">
+      <c r="C49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3">
         <v>737</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="A50" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="C50" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50" s="4">
+      <c r="C50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" s="3">
         <v>733</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D51" s="4">
+      <c r="C51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="3">
         <v>729</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="3" t="s">
         <v>1143</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="3" t="s">
         <v>1144</v>
       </c>
-      <c r="C52" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D52" s="4">
+      <c r="C52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D52" s="3">
         <v>680</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="A53" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="3" t="s">
         <v>1216</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D53" s="4">
+      <c r="C53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="3">
         <v>665</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="A54" s="3" t="s">
         <v>1161</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="3" t="s">
         <v>1162</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D54" s="4">
+      <c r="C54" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" s="3">
         <v>611</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C55" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="4">
+      <c r="C55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="3">
         <v>589</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="A56" s="3" t="s">
         <v>1111</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="3" t="s">
         <v>1112</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="4">
+      <c r="C56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" s="3">
         <v>572</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="A57" s="3" t="s">
         <v>1535</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="3" t="s">
         <v>1536</v>
       </c>
-      <c r="C57" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D57" s="4">
+      <c r="C57" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" s="3">
         <v>561</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="3" t="s">
         <v>1461</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="3" t="s">
         <v>1462</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D58" s="4">
+      <c r="C58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D58" s="3">
         <v>558</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="A59" s="3" t="s">
         <v>1537</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>1538</v>
       </c>
-      <c r="C59" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="4">
+      <c r="C59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" s="3">
         <v>554</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="4">
+      <c r="C60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="3">
         <v>546</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="3" t="s">
         <v>1477</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>1478</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D61" s="4">
+      <c r="C61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D61" s="3">
         <v>546</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="A62" s="3" t="s">
         <v>1527</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="3" t="s">
         <v>1528</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" s="4">
+      <c r="C62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" s="3">
         <v>545</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>1197</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>1198</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D63" s="4">
+      <c r="C63" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" s="3">
         <v>543</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="A64" s="3" t="s">
         <v>1313</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="3" t="s">
         <v>1314</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="4">
+      <c r="C64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="3">
         <v>536</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="A65" s="3" t="s">
         <v>1029</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="3" t="s">
         <v>1030</v>
       </c>
-      <c r="C65" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D65" s="4">
+      <c r="C65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" s="3">
         <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D66" s="4">
+      <c r="C66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="3">
         <v>530</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>1457</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>1458</v>
       </c>
-      <c r="C67" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D67" s="4">
+      <c r="C67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D67" s="3">
         <v>503</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="A68" s="3" t="s">
         <v>1181</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="3" t="s">
         <v>1182</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D68" s="4">
+      <c r="C68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" s="3">
         <v>502</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
+      <c r="A69" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="C69" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D69" s="4">
+      <c r="C69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" s="3">
         <v>499</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
+      <c r="A70" s="3" t="s">
         <v>1317</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="3" t="s">
         <v>1318</v>
       </c>
-      <c r="C70" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D70" s="4">
+      <c r="C70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D70" s="3">
         <v>497</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>1135</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>1136</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D71" s="4">
+      <c r="C71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D71" s="3">
         <v>490</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="3" t="s">
         <v>1033</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>1034</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D72" s="4">
+      <c r="C72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D72" s="3">
         <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="4" t="s">
+      <c r="A73" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D73" s="4">
+      <c r="C73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="3">
         <v>467</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
+      <c r="A74" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="4">
+      <c r="C74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="3">
         <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>1467</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>1468</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="4">
+      <c r="C75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="3">
         <v>444</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="4" t="s">
+      <c r="A76" s="3" t="s">
         <v>1485</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>1486</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="4">
+      <c r="C76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="3">
         <v>434</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
+      <c r="A77" s="3" t="s">
         <v>1385</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>1386</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D77" s="4">
+      <c r="C77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D77" s="3">
         <v>416</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
+      <c r="A78" s="3" t="s">
         <v>1311</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>1312</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D78" s="4">
+      <c r="C78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="3">
         <v>407</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D79" s="4">
+      <c r="C79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="3">
         <v>401</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D80" s="4">
+      <c r="C80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="3">
         <v>372</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="4" t="s">
+      <c r="A81" s="3" t="s">
         <v>1201</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="3" t="s">
         <v>1202</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D81" s="4">
+      <c r="C81" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="3">
         <v>370</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="3" t="s">
         <v>1339</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="3" t="s">
         <v>1340</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D82" s="4">
+      <c r="C82" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="3">
         <v>364</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>1471</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>1472</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D83" s="4">
+      <c r="C83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="3">
         <v>363</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="B84" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D84" s="4">
+      <c r="C84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="3">
         <v>359</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
+      <c r="A85" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="C85" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D85" s="3">
+      <c r="C85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="2">
         <v>354</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
+      <c r="A86" s="3" t="s">
         <v>1539</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="B86" s="3" t="s">
         <v>1540</v>
       </c>
-      <c r="C86" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D86" s="4">
+      <c r="C86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="3">
         <v>353</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>1609</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>1610</v>
       </c>
-      <c r="C87" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D87" s="4">
+      <c r="C87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="3">
         <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>1347</v>
       </c>
-      <c r="B88" s="4" t="s">
+      <c r="B88" s="3" t="s">
         <v>1348</v>
       </c>
-      <c r="C88" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D88" s="4">
+      <c r="C88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D88" s="3">
         <v>346</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="4" t="s">
+      <c r="A89" s="3" t="s">
         <v>1777</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="B89" s="3" t="s">
         <v>1778</v>
       </c>
-      <c r="C89" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="4">
+      <c r="C89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="3">
         <v>346</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="4" t="s">
+      <c r="A90" s="3" t="s">
         <v>1603</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="B90" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="C90" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D90" s="4">
+      <c r="C90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D90" s="3">
         <v>329</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>1401</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>1402</v>
       </c>
-      <c r="C91" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D91" s="4">
+      <c r="C91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D91" s="3">
         <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="4" t="s">
+      <c r="A92" s="3" t="s">
         <v>958</v>
       </c>
-      <c r="B92" s="4" t="s">
+      <c r="B92" s="3" t="s">
         <v>959</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D92" s="4">
+      <c r="C92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" s="3">
         <v>317</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="4" t="s">
+      <c r="A93" s="3" t="s">
         <v>1531</v>
       </c>
-      <c r="B93" s="4" t="s">
+      <c r="B93" s="3" t="s">
         <v>1532</v>
       </c>
-      <c r="C93" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D93" s="4">
+      <c r="C93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D93" s="3">
         <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="4" t="s">
+      <c r="A94" s="3" t="s">
         <v>1095</v>
       </c>
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>1096</v>
       </c>
-      <c r="C94" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D94" s="4">
+      <c r="C94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D94" s="3">
         <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="4" t="s">
+      <c r="A95" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C95" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D95" s="4">
+      <c r="C95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D95" s="3">
         <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>1349</v>
       </c>
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>1350</v>
       </c>
-      <c r="C96" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D96" s="4">
+      <c r="C96" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96" s="3">
         <v>284</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="4" t="s">
+      <c r="A97" s="3" t="s">
         <v>1701</v>
       </c>
-      <c r="B97" s="4" t="s">
+      <c r="B97" s="3" t="s">
         <v>1702</v>
       </c>
-      <c r="C97" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97" s="4">
+      <c r="C97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" s="3">
         <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
+      <c r="A98" s="3" t="s">
         <v>1027</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="B98" s="3" t="s">
         <v>1028</v>
       </c>
-      <c r="C98" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D98" s="4">
+      <c r="C98" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D98" s="3">
         <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="4" t="s">
+      <c r="A99" s="3" t="s">
         <v>1315</v>
       </c>
-      <c r="B99" s="4" t="s">
+      <c r="B99" s="3" t="s">
         <v>1316</v>
       </c>
-      <c r="C99" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D99" s="4">
+      <c r="C99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D99" s="3">
         <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="4" t="s">
+      <c r="A100" s="3" t="s">
         <v>1479</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="B100" s="3" t="s">
         <v>1480</v>
       </c>
-      <c r="C100" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D100" s="4">
+      <c r="C100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D100" s="3">
         <v>258</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
+      <c r="A101" s="3" t="s">
         <v>1031</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="B101" s="3" t="s">
         <v>1032</v>
       </c>
-      <c r="C101" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D101" s="4">
+      <c r="C101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D101" s="3">
         <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="4" t="s">
+      <c r="A102" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="B102" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C102" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D102" s="4">
+      <c r="C102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D102" s="3">
         <v>252</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="4" t="s">
+      <c r="A103" s="3" t="s">
         <v>1393</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="3" t="s">
         <v>1394</v>
       </c>
-      <c r="C103" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D103" s="4">
+      <c r="C103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D103" s="3">
         <v>247</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
+      <c r="A104" s="3" t="s">
         <v>1653</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="3" t="s">
         <v>1654</v>
       </c>
-      <c r="C104" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D104" s="4">
+      <c r="C104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D104" s="3">
         <v>243</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="4" t="s">
+      <c r="A105" s="3" t="s">
         <v>1117</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="3" t="s">
         <v>1118</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="4">
+      <c r="C105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D105" s="3">
         <v>241</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="4" t="s">
+      <c r="A106" s="3" t="s">
         <v>1601</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="B106" s="3" t="s">
         <v>1602</v>
       </c>
-      <c r="C106" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D106" s="4">
+      <c r="C106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D106" s="3">
         <v>240</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
+      <c r="A107" s="3" t="s">
         <v>1629</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="3" t="s">
         <v>1630</v>
       </c>
-      <c r="C107" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="4">
+      <c r="C107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="3">
         <v>239</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="3" t="s">
         <v>1403</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>1404</v>
       </c>
-      <c r="C108" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="4">
+      <c r="C108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="3">
         <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="4" t="s">
+      <c r="A109" s="3" t="s">
         <v>1677</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="3" t="s">
         <v>1678</v>
       </c>
-      <c r="C109" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D109" s="4">
+      <c r="C109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D109" s="3">
         <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
+      <c r="A110" s="3" t="s">
         <v>1335</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="3" t="s">
         <v>1336</v>
       </c>
-      <c r="C110" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D110" s="4">
+      <c r="C110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D110" s="3">
         <v>235</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4" t="s">
+      <c r="A111" s="3" t="s">
         <v>1625</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="3" t="s">
         <v>1626</v>
       </c>
-      <c r="C111" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D111" s="4">
+      <c r="C111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D111" s="3">
         <v>235</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="3" t="s">
         <v>1493</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="3" t="s">
         <v>1494</v>
       </c>
-      <c r="C112" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D112" s="4">
+      <c r="C112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D112" s="3">
         <v>234</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A113" s="4" t="s">
+      <c r="A113" s="3" t="s">
         <v>1589</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="C113" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D113" s="4">
+      <c r="C113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D113" s="3">
         <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
+      <c r="A114" s="3" t="s">
         <v>1447</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="3" t="s">
         <v>1448</v>
       </c>
-      <c r="C114" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D114" s="4">
+      <c r="C114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="3">
         <v>226</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A115" s="4" t="s">
+      <c r="A115" s="3" t="s">
         <v>1019</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="3" t="s">
         <v>1020</v>
       </c>
-      <c r="C115" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D115" s="4">
+      <c r="C115" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115" s="3">
         <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A116" s="4" t="s">
+      <c r="A116" s="2" t="s">
         <v>1827</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="2" t="s">
         <v>1828</v>
       </c>
-      <c r="C116" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D116" s="4">
+      <c r="C116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="2">
         <v>221</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
+      <c r="A117" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="C117" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D117" s="4">
+      <c r="C117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D117" s="3">
         <v>218</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="4" t="s">
+      <c r="A118" s="3" t="s">
         <v>1751</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>1752</v>
       </c>
-      <c r="C118" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D118" s="4">
+      <c r="C118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" s="3">
         <v>217</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A119" s="4" t="s">
+      <c r="A119" s="3" t="s">
         <v>1429</v>
       </c>
-      <c r="B119" s="4" t="s">
+      <c r="B119" s="3" t="s">
         <v>1430</v>
       </c>
-      <c r="C119" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="4">
+      <c r="C119" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D119" s="3">
         <v>215</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A120" s="4" t="s">
+      <c r="A120" s="3" t="s">
         <v>1383</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="3" t="s">
         <v>1384</v>
       </c>
-      <c r="C120" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="4">
+      <c r="C120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="3">
         <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
+      <c r="A121" s="3" t="s">
         <v>1551</v>
       </c>
-      <c r="B121" s="4" t="s">
+      <c r="B121" s="3" t="s">
         <v>1552</v>
       </c>
-      <c r="C121" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="4">
+      <c r="C121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D121" s="3">
         <v>211</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A122" s="4" t="s">
+      <c r="A122" s="3" t="s">
         <v>1137</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="3" t="s">
         <v>1138</v>
       </c>
-      <c r="C122" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D122" s="4">
+      <c r="C122" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D122" s="3">
         <v>210</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
+      <c r="A123" s="3" t="s">
         <v>1651</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="3" t="s">
         <v>1652</v>
       </c>
-      <c r="C123" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D123" s="4">
+      <c r="C123" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D123" s="3">
         <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A124" s="4" t="s">
+      <c r="A124" s="3" t="s">
         <v>1449</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="3" t="s">
         <v>1450</v>
       </c>
-      <c r="C124" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D124" s="4">
+      <c r="C124" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D124" s="3">
         <v>202</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A125" s="4" t="s">
+      <c r="A125" s="3" t="s">
         <v>1469</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="3" t="s">
         <v>1470</v>
       </c>
-      <c r="C125" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D125" s="4">
+      <c r="C125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="3">
         <v>201</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A126" s="4" t="s">
+      <c r="A126" s="3" t="s">
         <v>1331</v>
       </c>
-      <c r="B126" s="4" t="s">
+      <c r="B126" s="3" t="s">
         <v>1332</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D126" s="4">
+      <c r="C126" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D126" s="3">
         <v>194</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A127" s="4" t="s">
+      <c r="A127" s="3" t="s">
         <v>1173</v>
       </c>
-      <c r="B127" s="4" t="s">
+      <c r="B127" s="3" t="s">
         <v>1174</v>
       </c>
-      <c r="C127" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D127" s="4">
+      <c r="C127" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="3">
         <v>193</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
+      <c r="A128" s="3" t="s">
         <v>1659</v>
       </c>
-      <c r="B128" s="4" t="s">
+      <c r="B128" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="C128" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D128" s="4">
+      <c r="C128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D128" s="3">
         <v>191</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="4" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
         <v>1617</v>
       </c>
-      <c r="B129" s="4" t="s">
+      <c r="B129" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="C129" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D129" s="4">
+      <c r="C129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="4" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
         <v>1643</v>
       </c>
-      <c r="B130" s="4" t="s">
+      <c r="B130" s="3" t="s">
         <v>1644</v>
       </c>
-      <c r="C130" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D130" s="4">
+      <c r="C130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D130" s="3">
         <v>189</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A131" s="4" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
         <v>1191</v>
       </c>
-      <c r="B131" s="4" t="s">
+      <c r="B131" s="3" t="s">
         <v>1192</v>
       </c>
-      <c r="C131" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D131" s="4">
+      <c r="C131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="4" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>1525</v>
       </c>
-      <c r="B132" s="4" t="s">
+      <c r="B132" s="3" t="s">
         <v>1526</v>
       </c>
-      <c r="C132" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D132" s="4">
+      <c r="C132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="4" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="B133" s="4" t="s">
+      <c r="B133" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C133" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D133" s="4">
+      <c r="C133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="4" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
         <v>1775</v>
       </c>
-      <c r="B134" s="4" t="s">
+      <c r="B134" s="3" t="s">
         <v>1776</v>
       </c>
-      <c r="C134" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D134" s="4">
+      <c r="C134" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="3">
         <v>184</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="4" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="B135" s="4" t="s">
+      <c r="B135" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C135" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D135" s="4">
+      <c r="C135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
         <v>1781</v>
       </c>
-      <c r="B136" s="4" t="s">
+      <c r="B136" s="3" t="s">
         <v>1782</v>
       </c>
-      <c r="C136" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D136" s="4">
+      <c r="C136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="3">
         <v>183</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>1319</v>
       </c>
-      <c r="B137" s="4" t="s">
+      <c r="B137" s="3" t="s">
         <v>1320</v>
       </c>
-      <c r="C137" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D137" s="4">
+      <c r="C137" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D137" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="4" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
         <v>748</v>
       </c>
-      <c r="B138" s="4" t="s">
+      <c r="B138" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="C138" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D138" s="4">
+      <c r="C138" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
         <v>2163</v>
       </c>
-      <c r="B139" s="4" t="s">
+      <c r="B139" s="3" t="s">
         <v>2164</v>
       </c>
-      <c r="C139" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D139" s="4">
+      <c r="C139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="2" t="s">
         <v>2111</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="2" t="s">
         <v>2112</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D140" s="3">
+      <c r="C140" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D140" s="2">
         <v>178</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="4" t="s">
+      <c r="E140" s="2" t="s">
+        <v>4309</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
         <v>1113</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>1114</v>
       </c>
-      <c r="C141" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D141" s="4">
+      <c r="C141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="3">
         <v>174</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A142" s="4" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
         <v>966</v>
       </c>
-      <c r="B142" s="4" t="s">
+      <c r="B142" s="3" t="s">
         <v>967</v>
       </c>
-      <c r="C142" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D142" s="4">
+      <c r="C142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="3">
         <v>173</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="4" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
         <v>1727</v>
       </c>
-      <c r="B143" s="4" t="s">
+      <c r="B143" s="3" t="s">
         <v>1728</v>
       </c>
-      <c r="C143" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D143" s="4">
+      <c r="C143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="3">
         <v>171</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
         <v>1645</v>
       </c>
-      <c r="B144" s="4" t="s">
+      <c r="B144" s="3" t="s">
         <v>1646</v>
       </c>
-      <c r="C144" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D144" s="4">
+      <c r="C144" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="3">
         <v>168</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
+      <c r="A145" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="B145" s="4" t="s">
+      <c r="B145" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C145" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D145" s="4">
+      <c r="C145" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="3">
         <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="4" t="s">
+      <c r="A146" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="B146" s="4" t="s">
+      <c r="B146" s="3" t="s">
         <v>1204</v>
       </c>
-      <c r="C146" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D146" s="4">
+      <c r="C146" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="3">
         <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="4" t="s">
+      <c r="A147" s="3" t="s">
         <v>878</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>879</v>
       </c>
-      <c r="C147" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D147" s="4">
+      <c r="C147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="3">
         <v>164</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="3" t="s">
         <v>1489</v>
       </c>
-      <c r="B148" s="4" t="s">
+      <c r="B148" s="3" t="s">
         <v>1490</v>
       </c>
-      <c r="C148" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D148" s="4">
+      <c r="C148" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="3">
         <v>163</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="4" t="s">
+      <c r="A149" s="3" t="s">
         <v>1631</v>
       </c>
-      <c r="B149" s="4" t="s">
+      <c r="B149" s="3" t="s">
         <v>1632</v>
       </c>
-      <c r="C149" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D149" s="4">
+      <c r="C149" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="3">
         <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
+      <c r="A150" s="3" t="s">
         <v>1729</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>1730</v>
       </c>
-      <c r="C150" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D150" s="4">
+      <c r="C150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D150" s="3">
         <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
+      <c r="A151" s="3" t="s">
         <v>1321</v>
       </c>
-      <c r="B151" s="4" t="s">
+      <c r="B151" s="3" t="s">
         <v>1322</v>
       </c>
-      <c r="C151" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D151" s="4">
+      <c r="C151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="3">
         <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="4" t="s">
+      <c r="A152" s="2" t="s">
         <v>1873</v>
       </c>
-      <c r="B152" s="4" t="s">
+      <c r="B152" s="2" t="s">
         <v>1874</v>
       </c>
-      <c r="C152" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D152" s="4">
+      <c r="C152" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="2">
         <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
+      <c r="A153" s="3" t="s">
         <v>1177</v>
       </c>
-      <c r="B153" s="4" t="s">
+      <c r="B153" s="3" t="s">
         <v>1178</v>
       </c>
-      <c r="C153" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D153" s="4">
+      <c r="C153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="3">
         <v>151</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="3" t="s">
         <v>1605</v>
       </c>
-      <c r="B154" s="4" t="s">
+      <c r="B154" s="3" t="s">
         <v>1606</v>
       </c>
-      <c r="C154" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D154" s="4">
+      <c r="C154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D154" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
+      <c r="A155" s="3" t="s">
         <v>1719</v>
       </c>
-      <c r="B155" s="4" t="s">
+      <c r="B155" s="3" t="s">
         <v>1720</v>
       </c>
-      <c r="C155" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D155" s="4">
+      <c r="C155" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
+      <c r="A156" s="3" t="s">
         <v>2151</v>
       </c>
-      <c r="B156" s="4" t="s">
+      <c r="B156" s="3" t="s">
         <v>2152</v>
       </c>
-      <c r="C156" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D156" s="4">
+      <c r="C156" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="3">
         <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
+      <c r="A157" s="3" t="s">
         <v>1147</v>
       </c>
-      <c r="B157" s="4" t="s">
+      <c r="B157" s="3" t="s">
         <v>1148</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D157" s="4">
+      <c r="C157" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D157" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="3" t="s">
         <v>1533</v>
       </c>
-      <c r="B158" s="4" t="s">
+      <c r="B158" s="3" t="s">
         <v>1534</v>
       </c>
-      <c r="C158" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D158" s="4">
+      <c r="C158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="3">
         <v>147</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
+      <c r="A159" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="B159" s="4" t="s">
+      <c r="B159" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="C159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="4">
+      <c r="C159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="3">
         <v>144</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
+      <c r="A160" s="3" t="s">
         <v>1125</v>
       </c>
-      <c r="B160" s="4" t="s">
+      <c r="B160" s="3" t="s">
         <v>1126</v>
       </c>
-      <c r="C160" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="4">
+      <c r="C160" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="3">
         <v>142</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
+      <c r="A161" s="3" t="s">
         <v>1837</v>
       </c>
-      <c r="B161" s="4" t="s">
+      <c r="B161" s="3" t="s">
         <v>1838</v>
       </c>
-      <c r="C161" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D161" s="4">
+      <c r="C161" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D161" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
+      <c r="A162" s="3" t="s">
         <v>2157</v>
       </c>
-      <c r="B162" s="4" t="s">
+      <c r="B162" s="3" t="s">
         <v>2158</v>
       </c>
-      <c r="C162" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D162" s="4">
+      <c r="C162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D162" s="3">
         <v>140</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="4" t="s">
+      <c r="A163" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="3" t="s">
         <v>1224</v>
       </c>
-      <c r="C163" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D163" s="4">
+      <c r="C163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D163" s="3">
         <v>139</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
+      <c r="A164" s="3" t="s">
         <v>1725</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="3" t="s">
         <v>1726</v>
       </c>
-      <c r="C164" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D164" s="4">
+      <c r="C164" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D164" s="3">
         <v>139</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
+      <c r="A165" s="3" t="s">
         <v>1739</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="3" t="s">
         <v>1740</v>
       </c>
-      <c r="C165" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D165" s="4">
+      <c r="C165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D165" s="3">
         <v>139</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
+      <c r="A166" s="3" t="s">
         <v>1325</v>
       </c>
-      <c r="B166" s="4" t="s">
+      <c r="B166" s="3" t="s">
         <v>1326</v>
       </c>
-      <c r="C166" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D166" s="4">
+      <c r="C166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D166" s="3">
         <v>134</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A167" s="4" t="s">
+      <c r="A167" s="3" t="s">
         <v>985</v>
       </c>
-      <c r="B167" s="4" t="s">
+      <c r="B167" s="3" t="s">
         <v>986</v>
       </c>
-      <c r="C167" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="4">
+      <c r="C167" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D167" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
+      <c r="A168" s="3" t="s">
         <v>1053</v>
       </c>
-      <c r="B168" s="4" t="s">
+      <c r="B168" s="3" t="s">
         <v>1054</v>
       </c>
-      <c r="C168" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D168" s="4">
+      <c r="C168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
+      <c r="A169" s="3" t="s">
         <v>1087</v>
       </c>
-      <c r="B169" s="4" t="s">
+      <c r="B169" s="3" t="s">
         <v>1088</v>
       </c>
-      <c r="C169" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D169" s="4">
+      <c r="C169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D169" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
+      <c r="A170" s="3" t="s">
         <v>1451</v>
       </c>
-      <c r="B170" s="4" t="s">
+      <c r="B170" s="3" t="s">
         <v>1452</v>
       </c>
-      <c r="C170" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D170" s="4">
+      <c r="C170" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D170" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
+      <c r="A171" s="3" t="s">
         <v>1789</v>
       </c>
-      <c r="B171" s="4" t="s">
+      <c r="B171" s="3" t="s">
         <v>1790</v>
       </c>
-      <c r="C171" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D171" s="4">
+      <c r="C171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D171" s="3">
         <v>133</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="4" t="s">
+      <c r="A172" s="3" t="s">
         <v>1367</v>
       </c>
-      <c r="B172" s="4" t="s">
+      <c r="B172" s="3" t="s">
         <v>1368</v>
       </c>
-      <c r="C172" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D172" s="4">
+      <c r="C172" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D172" s="3">
         <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="4" t="s">
+      <c r="A173" s="3" t="s">
         <v>1329</v>
       </c>
-      <c r="B173" s="4" t="s">
+      <c r="B173" s="3" t="s">
         <v>1330</v>
       </c>
-      <c r="C173" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D173" s="4">
+      <c r="C173" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D173" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="4" t="s">
+      <c r="A174" s="3" t="s">
         <v>1377</v>
       </c>
-      <c r="B174" s="4" t="s">
+      <c r="B174" s="3" t="s">
         <v>1378</v>
       </c>
-      <c r="C174" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D174" s="4">
+      <c r="C174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D174" s="3">
         <v>128</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="4" t="s">
+      <c r="A175" s="3" t="s">
         <v>1593</v>
       </c>
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>1594</v>
       </c>
-      <c r="C175" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D175" s="4">
+      <c r="C175" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D175" s="3">
         <v>126</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="4" t="s">
+      <c r="A176" s="3" t="s">
         <v>1579</v>
       </c>
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>1580</v>
       </c>
-      <c r="C176" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D176" s="4">
+      <c r="C176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D176" s="3">
         <v>125</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="4" t="s">
+      <c r="A177" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C177" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D177" s="4">
+      <c r="C177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D177" s="3">
         <v>124</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="4" t="s">
+      <c r="A178" s="3" t="s">
         <v>1189</v>
       </c>
-      <c r="B178" s="4" t="s">
+      <c r="B178" s="3" t="s">
         <v>1190</v>
       </c>
-      <c r="C178" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D178" s="4">
+      <c r="C178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D178" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="4" t="s">
+      <c r="A179" s="3" t="s">
         <v>1763</v>
       </c>
-      <c r="B179" s="4" t="s">
+      <c r="B179" s="3" t="s">
         <v>1764</v>
       </c>
-      <c r="C179" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D179" s="4">
+      <c r="C179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D179" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A180" s="4" t="s">
+      <c r="A180" s="3" t="s">
         <v>1899</v>
       </c>
-      <c r="B180" s="4" t="s">
+      <c r="B180" s="3" t="s">
         <v>1900</v>
       </c>
-      <c r="C180" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="4">
+      <c r="C180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="3">
         <v>122</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+      <c r="A181" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B181" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C181" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D181" s="4">
+      <c r="C181" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D181" s="3">
         <v>119</v>
       </c>
     </row>
@@ -16475,114 +16499,114 @@
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A189" s="4" t="s">
+      <c r="A189" s="3" t="s">
         <v>2153</v>
       </c>
-      <c r="B189" s="4" t="s">
+      <c r="B189" s="3" t="s">
         <v>2154</v>
       </c>
-      <c r="C189" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D189" s="4">
+      <c r="C189" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D189" s="3">
         <v>114</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="4" t="s">
+      <c r="A190" s="3" t="s">
         <v>1885</v>
       </c>
-      <c r="B190" s="4" t="s">
+      <c r="B190" s="3" t="s">
         <v>1886</v>
       </c>
-      <c r="C190" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D190" s="4">
+      <c r="C190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D190" s="3">
         <v>113</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A191" s="4" t="s">
+      <c r="A191" s="3" t="s">
         <v>1771</v>
       </c>
-      <c r="B191" s="4" t="s">
+      <c r="B191" s="3" t="s">
         <v>1772</v>
       </c>
-      <c r="C191" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D191" s="4">
+      <c r="C191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D191" s="3">
         <v>108</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A192" s="4" t="s">
+      <c r="A192" s="3" t="s">
         <v>1193</v>
       </c>
-      <c r="B192" s="4" t="s">
+      <c r="B192" s="3" t="s">
         <v>1194</v>
       </c>
-      <c r="C192" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D192" s="4">
+      <c r="C192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D192" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A193" s="4" t="s">
+      <c r="A193" s="3" t="s">
         <v>1627</v>
       </c>
-      <c r="B193" s="4" t="s">
+      <c r="B193" s="3" t="s">
         <v>1628</v>
       </c>
-      <c r="C193" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D193" s="4">
+      <c r="C193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D193" s="3">
         <v>107</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A194" s="4" t="s">
+      <c r="A194" s="3" t="s">
         <v>1323</v>
       </c>
-      <c r="B194" s="4" t="s">
+      <c r="B194" s="3" t="s">
         <v>1324</v>
       </c>
-      <c r="C194" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D194" s="4">
+      <c r="C194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194" s="3">
         <v>102</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A195" s="4" t="s">
+      <c r="A195" s="3" t="s">
         <v>1669</v>
       </c>
-      <c r="B195" s="4" t="s">
+      <c r="B195" s="3" t="s">
         <v>1670</v>
       </c>
-      <c r="C195" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D195" s="4">
+      <c r="C195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D195" s="3">
         <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A196" s="4" t="s">
+      <c r="A196" s="3" t="s">
         <v>1407</v>
       </c>
-      <c r="B196" s="4" t="s">
+      <c r="B196" s="3" t="s">
         <v>1408</v>
       </c>
-      <c r="C196" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D196" s="4">
+      <c r="C196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196" s="3">
         <v>99</v>
       </c>
     </row>
@@ -16671,58 +16695,58 @@
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A203" s="4" t="s">
+      <c r="A203" s="3" t="s">
         <v>1681</v>
       </c>
-      <c r="B203" s="4" t="s">
+      <c r="B203" s="3" t="s">
         <v>1682</v>
       </c>
-      <c r="C203" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D203" s="4">
+      <c r="C203" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D203" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A204" s="4" t="s">
+      <c r="A204" s="3" t="s">
         <v>1949</v>
       </c>
-      <c r="B204" s="4" t="s">
+      <c r="B204" s="3" t="s">
         <v>1950</v>
       </c>
-      <c r="C204" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D204" s="4">
+      <c r="C204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="3">
         <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A205" s="4" t="s">
+      <c r="A205" s="3" t="s">
         <v>1829</v>
       </c>
-      <c r="B205" s="4" t="s">
+      <c r="B205" s="3" t="s">
         <v>1830</v>
       </c>
-      <c r="C205" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D205" s="4">
+      <c r="C205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D205" s="3">
         <v>95</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A206" s="4" t="s">
+      <c r="A206" s="3" t="s">
         <v>1171</v>
       </c>
-      <c r="B206" s="4" t="s">
+      <c r="B206" s="3" t="s">
         <v>1172</v>
       </c>
-      <c r="C206" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D206" s="4">
+      <c r="C206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D206" s="3">
         <v>93</v>
       </c>
     </row>
@@ -17105,114 +17129,114 @@
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A234" s="4" t="s">
+      <c r="A234" s="3" t="s">
         <v>1641</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>1642</v>
       </c>
-      <c r="C234" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D234" s="4">
+      <c r="C234" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D234" s="3">
         <v>76</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A235" s="4" t="s">
+      <c r="A235" s="3" t="s">
         <v>1379</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>1380</v>
       </c>
-      <c r="C235" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D235" s="4">
+      <c r="C235" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D235" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="3" t="s">
         <v>1947</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>1948</v>
       </c>
-      <c r="C236" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D236" s="4">
+      <c r="C236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D236" s="3">
         <v>75</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A237" s="4" t="s">
+      <c r="A237" s="3" t="s">
         <v>1599</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>1600</v>
       </c>
-      <c r="C237" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D237" s="4">
+      <c r="C237" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D237" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A238" s="4" t="s">
+      <c r="A238" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>1978</v>
       </c>
-      <c r="C238" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D238" s="4">
+      <c r="C238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D238" s="3">
         <v>73</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A239" s="4" t="s">
+      <c r="A239" s="3" t="s">
         <v>2115</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>2116</v>
       </c>
-      <c r="C239" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D239" s="4">
+      <c r="C239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D239" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A240" s="4" t="s">
+      <c r="A240" s="3" t="s">
         <v>2149</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>2150</v>
       </c>
-      <c r="C240" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D240" s="4">
+      <c r="C240" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D240" s="3">
         <v>72</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A241" s="4" t="s">
+      <c r="A241" s="3" t="s">
         <v>1389</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>1390</v>
       </c>
-      <c r="C241" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D241" s="4">
+      <c r="C241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D241" s="3">
         <v>71</v>
       </c>
     </row>
@@ -43957,7 +43981,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D2151">
+  <autoFilter ref="A1:D2151" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="2">
       <filters>
         <filter val="people"/>

--- a/data/properties.xlsx
+++ b/data/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/MetadataLab/LinkedArchives/Linked_Archives_Wikibase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F76F91C7-2F39-9745-BB3B-B966A27031FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA63AD7-8EC0-E741-86E7-3EBD7ECE012B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5760" yWindow="460" windowWidth="21860" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13831,7 +13831,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E2151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A830" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A1907" sqref="A1907:D1907"/>
     </sheetView>
   </sheetViews>

--- a/data/properties.xlsx
+++ b/data/properties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/MetadataLab/LinkedArchives/Linked_Archives_Wikibase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EA63AD7-8EC0-E741-86E7-3EBD7ECE012B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D3C12-9D40-834F-B549-C7AF57717B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="460" windowWidth="21860" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11740" yWindow="460" windowWidth="16560" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -12966,7 +12966,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -13120,6 +13120,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13466,13 +13472,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -13831,8 +13838,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E2151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1907" sqref="A1907:D1907"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A447" sqref="A447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14728,16 +14735,16 @@
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="3" t="s">
         <v>1105</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>1106</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D60" s="2">
+      <c r="C60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D60" s="3">
         <v>546</v>
       </c>
       <c r="E60" s="3"/>
@@ -16528,16 +16535,16 @@
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="3" t="s">
+      <c r="A180" s="2" t="s">
         <v>1899</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="2" t="s">
         <v>1900</v>
       </c>
-      <c r="C180" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D180" s="3">
+      <c r="C180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180" s="2">
         <v>122</v>
       </c>
       <c r="E180" s="3"/>
@@ -18807,16 +18814,16 @@
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A332" s="3" t="s">
+      <c r="A332" s="2" t="s">
         <v>1793</v>
       </c>
-      <c r="B332" s="3" t="s">
+      <c r="B332" s="2" t="s">
         <v>1794</v>
       </c>
-      <c r="C332" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D332" s="3">
+      <c r="C332" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D332" s="2">
         <v>40</v>
       </c>
       <c r="E332" s="3"/>
@@ -20389,16 +20396,16 @@
       <c r="E437" s="3"/>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A438" s="2" t="s">
+      <c r="A438" s="6" t="s">
         <v>2333</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="6" t="s">
         <v>2334</v>
       </c>
-      <c r="C438" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D438" s="2">
+      <c r="C438" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D438" s="6">
         <v>26</v>
       </c>
       <c r="E438" s="3"/>
@@ -42581,16 +42588,16 @@
       </c>
     </row>
     <row r="2020" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2020" s="2" t="s">
+      <c r="A2020" s="6" t="s">
         <v>3923</v>
       </c>
-      <c r="B2020" s="2" t="s">
+      <c r="B2020" s="6" t="s">
         <v>3924</v>
       </c>
-      <c r="C2020" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2020" s="2">
+      <c r="C2020" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2020" s="6">
         <v>1</v>
       </c>
     </row>
@@ -44440,5 +44447,6 @@
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/properties.xlsx
+++ b/data/properties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/MetadataLab/LinkedArchives/Linked_Archives_Wikibase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517D3C12-9D40-834F-B549-C7AF57717B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F5933-C1DB-B74A-88A4-AB72A900B397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11740" yWindow="460" windowWidth="16560" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13040" yWindow="460" windowWidth="15760" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -13838,8 +13838,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:E2151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A447" sqref="A447"/>
+    <sheetView tabSelected="1" topLeftCell="A2080" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2090" sqref="A2090"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -27860,16 +27860,16 @@
       </c>
     </row>
     <row r="968" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A968" s="2" t="s">
+      <c r="A968" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B968" s="2" t="s">
+      <c r="B968" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="C968" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D968" s="2">
+      <c r="C968" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D968" s="6">
         <v>5</v>
       </c>
     </row>
@@ -28560,16 +28560,16 @@
       </c>
     </row>
     <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1018" t="s">
+      <c r="A1018" s="2" t="s">
         <v>3237</v>
       </c>
-      <c r="B1018" t="s">
+      <c r="B1018" s="2" t="s">
         <v>3238</v>
       </c>
-      <c r="C1018" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1018">
+      <c r="C1018" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1018" s="2">
         <v>5</v>
       </c>
     </row>
@@ -30968,16 +30968,16 @@
       </c>
     </row>
     <row r="1190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1190" s="2" t="s">
+      <c r="A1190" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B1190" s="2" t="s">
+      <c r="B1190" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C1190" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1190" s="2">
+      <c r="C1190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1190" s="3">
         <v>3</v>
       </c>
     </row>
@@ -32116,16 +32116,16 @@
       </c>
     </row>
     <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1272" t="s">
+      <c r="A1272" s="2" t="s">
         <v>3525</v>
       </c>
-      <c r="B1272" t="s">
+      <c r="B1272" s="2" t="s">
         <v>3526</v>
       </c>
-      <c r="C1272" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1272">
+      <c r="C1272" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1272" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33726,16 +33726,16 @@
       </c>
     </row>
     <row r="1387" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1387" s="2" t="s">
+      <c r="A1387" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B1387" s="2" t="s">
+      <c r="B1387" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C1387" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1387" s="2">
+      <c r="C1387" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1387" s="6">
         <v>2</v>
       </c>
     </row>
@@ -38668,16 +38668,16 @@
       </c>
     </row>
     <row r="1740" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1740" s="2" t="s">
+      <c r="A1740" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B1740" s="2" t="s">
+      <c r="B1740" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C1740" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1740" s="2">
+      <c r="C1740" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1740" s="6">
         <v>1</v>
       </c>
     </row>
@@ -39326,16 +39326,16 @@
       </c>
     </row>
     <row r="1787" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1787" s="2" t="s">
+      <c r="A1787" s="6" t="s">
         <v>2327</v>
       </c>
-      <c r="B1787" s="2" t="s">
+      <c r="B1787" s="6" t="s">
         <v>2328</v>
       </c>
-      <c r="C1787" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1787" s="2">
+      <c r="C1787" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1787" s="6">
         <v>1</v>
       </c>
     </row>
@@ -42630,16 +42630,16 @@
       </c>
     </row>
     <row r="2023" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2023" t="s">
+      <c r="A2023" s="2" t="s">
         <v>3933</v>
       </c>
-      <c r="B2023" t="s">
+      <c r="B2023" s="2" t="s">
         <v>3934</v>
       </c>
-      <c r="C2023" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2023">
+      <c r="C2023" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2023" s="2">
         <v>1</v>
       </c>
     </row>

--- a/data/properties.xlsx
+++ b/data/properties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katie/MetadataLab/LinkedArchives/Linked_Archives_Wikibase/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7F5933-C1DB-B74A-88A4-AB72A900B397}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A38943B-E258-1E49-A792-B7C03F27F7AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13040" yWindow="460" windowWidth="15760" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13835,11 +13835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E2151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2080" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2090" sqref="A2090"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18799,7 +18798,7 @@
       </c>
       <c r="E330" s="3"/>
     </row>
-    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>3</v>
       </c>
@@ -19053,7 +19052,7 @@
       </c>
       <c r="E347" s="3"/>
     </row>
-    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>9</v>
       </c>
@@ -19142,7 +19141,7 @@
       </c>
       <c r="E353" s="3"/>
     </row>
-    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>48</v>
       </c>
@@ -19276,7 +19275,7 @@
       </c>
       <c r="E362" s="3"/>
     </row>
-    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>46</v>
       </c>
@@ -19665,7 +19664,7 @@
       </c>
       <c r="E388" s="3"/>
     </row>
-    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>87</v>
       </c>
@@ -19679,7 +19678,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>105</v>
       </c>
@@ -19783,7 +19782,7 @@
       </c>
       <c r="E396" s="3"/>
     </row>
-    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>65</v>
       </c>
@@ -20052,7 +20051,7 @@
       </c>
       <c r="E414" s="3"/>
     </row>
-    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>30</v>
       </c>
@@ -20066,7 +20065,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>360</v>
       </c>
@@ -20425,7 +20424,7 @@
       </c>
       <c r="E439" s="3"/>
     </row>
-    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -20694,7 +20693,7 @@
       </c>
       <c r="E457" s="3"/>
     </row>
-    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>28</v>
       </c>
@@ -20843,7 +20842,7 @@
       </c>
       <c r="E467" s="3"/>
     </row>
-    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>79</v>
       </c>
@@ -21052,7 +21051,7 @@
       </c>
       <c r="E481" s="3"/>
     </row>
-    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>232</v>
       </c>
@@ -21153,7 +21152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>111</v>
       </c>
@@ -21167,7 +21166,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>218</v>
       </c>
@@ -21307,7 +21306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>77</v>
       </c>
@@ -21321,7 +21320,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>119</v>
       </c>
@@ -21335,7 +21334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>200</v>
       </c>
@@ -21657,7 +21656,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>113</v>
       </c>
@@ -21671,7 +21670,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>180</v>
       </c>
@@ -21685,7 +21684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>314</v>
       </c>
@@ -21895,7 +21894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>182</v>
       </c>
@@ -22077,7 +22076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>156</v>
       </c>
@@ -22091,7 +22090,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>282</v>
       </c>
@@ -22105,7 +22104,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>320</v>
       </c>
@@ -22385,7 +22384,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>109</v>
       </c>
@@ -22399,7 +22398,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>328</v>
       </c>
@@ -22959,7 +22958,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>123</v>
       </c>
@@ -22973,7 +22972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>230</v>
       </c>
@@ -22987,7 +22986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>356</v>
       </c>
@@ -23001,7 +23000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>362</v>
       </c>
@@ -23281,7 +23280,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>50</v>
       </c>
@@ -23295,7 +23294,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>330</v>
       </c>
@@ -23309,7 +23308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>1061</v>
       </c>
@@ -23589,7 +23588,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>54</v>
       </c>
@@ -23603,7 +23602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>115</v>
       </c>
@@ -23617,7 +23616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>226</v>
       </c>
@@ -23631,7 +23630,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>276</v>
       </c>
@@ -23645,7 +23644,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>344</v>
       </c>
@@ -23659,7 +23658,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>364</v>
       </c>
@@ -24023,7 +24022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>11</v>
       </c>
@@ -24037,7 +24036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="695" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>44</v>
       </c>
@@ -24051,7 +24050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="696" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>272</v>
       </c>
@@ -24065,7 +24064,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="697" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>308</v>
       </c>
@@ -24079,7 +24078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>692</v>
       </c>
@@ -24513,7 +24512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="729" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>158</v>
       </c>
@@ -24527,7 +24526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="730" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>164</v>
       </c>
@@ -24541,7 +24540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="731" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>280</v>
       </c>
@@ -24555,7 +24554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="732" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>332</v>
       </c>
@@ -24569,7 +24568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="733" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>386</v>
       </c>
@@ -24583,7 +24582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="734" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>426</v>
       </c>
@@ -24597,7 +24596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>462</v>
       </c>
@@ -24611,7 +24610,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="736" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>676</v>
       </c>
@@ -24625,7 +24624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="737" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>824</v>
       </c>
@@ -24639,7 +24638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="738" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>874</v>
       </c>
@@ -25213,7 +25212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="779" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
         <v>26</v>
       </c>
@@ -25227,7 +25226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="780" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
         <v>58</v>
       </c>
@@ -25241,7 +25240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="781" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
         <v>85</v>
       </c>
@@ -25255,7 +25254,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="782" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
         <v>101</v>
       </c>
@@ -25269,7 +25268,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="783" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
         <v>210</v>
       </c>
@@ -25283,7 +25282,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="784" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
         <v>294</v>
       </c>
@@ -25297,7 +25296,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="785" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
         <v>338</v>
       </c>
@@ -25311,7 +25310,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="786" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
         <v>348</v>
       </c>
@@ -25325,7 +25324,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="787" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
         <v>592</v>
       </c>
@@ -25339,7 +25338,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="788" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
         <v>598</v>
       </c>
@@ -25353,7 +25352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="789" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
         <v>622</v>
       </c>
@@ -25367,7 +25366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="790" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
         <v>894</v>
       </c>
@@ -26137,7 +26136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="845" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
         <v>0</v>
       </c>
@@ -26151,7 +26150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="846" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
         <v>13</v>
       </c>
@@ -26165,7 +26164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="847" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
         <v>24</v>
       </c>
@@ -26179,7 +26178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="848" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
         <v>32</v>
       </c>
@@ -26193,7 +26192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="849" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
         <v>42</v>
       </c>
@@ -26207,7 +26206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="850" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
         <v>56</v>
       </c>
@@ -26221,7 +26220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="851" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
         <v>69</v>
       </c>
@@ -26235,7 +26234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="852" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
         <v>71</v>
       </c>
@@ -26249,7 +26248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="853" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
         <v>73</v>
       </c>
@@ -26263,7 +26262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="854" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
         <v>75</v>
       </c>
@@ -26277,7 +26276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="855" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
         <v>81</v>
       </c>
@@ -26291,7 +26290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="856" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
         <v>83</v>
       </c>
@@ -26305,7 +26304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="857" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
         <v>99</v>
       </c>
@@ -26319,7 +26318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="858" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
         <v>103</v>
       </c>
@@ -26333,7 +26332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="859" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
         <v>178</v>
       </c>
@@ -26347,7 +26346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="860" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
         <v>186</v>
       </c>
@@ -26361,7 +26360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="861" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
         <v>198</v>
       </c>
@@ -26375,7 +26374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="862" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
         <v>202</v>
       </c>
@@ -26389,7 +26388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="863" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
         <v>212</v>
       </c>
@@ -26403,7 +26402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="864" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
         <v>216</v>
       </c>
@@ -26417,7 +26416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="865" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
         <v>240</v>
       </c>
@@ -26431,7 +26430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="866" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
         <v>252</v>
       </c>
@@ -26445,7 +26444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="867" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
         <v>254</v>
       </c>
@@ -26459,7 +26458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="868" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
         <v>256</v>
       </c>
@@ -26473,7 +26472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="869" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
         <v>258</v>
       </c>
@@ -26487,7 +26486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="870" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
         <v>264</v>
       </c>
@@ -26501,7 +26500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="871" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
         <v>266</v>
       </c>
@@ -26515,7 +26514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="872" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
         <v>286</v>
       </c>
@@ -26529,7 +26528,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="873" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
         <v>292</v>
       </c>
@@ -26543,7 +26542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="874" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
         <v>300</v>
       </c>
@@ -26557,7 +26556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
         <v>304</v>
       </c>
@@ -26571,7 +26570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="876" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
         <v>336</v>
       </c>
@@ -26585,7 +26584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
         <v>590</v>
       </c>
@@ -26599,7 +26598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="878" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
         <v>594</v>
       </c>
@@ -26613,7 +26612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="879" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
         <v>602</v>
       </c>
@@ -26627,7 +26626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="880" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
         <v>604</v>
       </c>
@@ -26641,7 +26640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="881" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
         <v>634</v>
       </c>
@@ -26655,7 +26654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="882" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
         <v>644</v>
       </c>
@@ -26669,7 +26668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="883" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
         <v>646</v>
       </c>
@@ -26683,7 +26682,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="884" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
         <v>650</v>
       </c>
@@ -26697,7 +26696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="885" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
         <v>654</v>
       </c>
@@ -26711,7 +26710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="886" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
         <v>664</v>
       </c>
@@ -26725,7 +26724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="887" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
         <v>682</v>
       </c>
@@ -26739,7 +26738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="888" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
         <v>686</v>
       </c>
@@ -26753,7 +26752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="889" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
         <v>700</v>
       </c>
@@ -26767,7 +26766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="890" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
         <v>702</v>
       </c>
@@ -26781,7 +26780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="891" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
         <v>786</v>
       </c>
@@ -26795,7 +26794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="892" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
         <v>948</v>
       </c>
@@ -26809,7 +26808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="893" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
         <v>952</v>
       </c>
@@ -27551,7 +27550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="946" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
         <v>97</v>
       </c>
@@ -27565,7 +27564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="947" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
         <v>270</v>
       </c>
@@ -27579,7 +27578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="948" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
         <v>278</v>
       </c>
@@ -27593,7 +27592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="949" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
         <v>284</v>
       </c>
@@ -27607,7 +27606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="950" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
         <v>350</v>
       </c>
@@ -27621,7 +27620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
         <v>412</v>
       </c>
@@ -27635,7 +27634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="952" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
         <v>420</v>
       </c>
@@ -27649,7 +27648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="953" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
         <v>436</v>
       </c>
@@ -27663,7 +27662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="954" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
         <v>606</v>
       </c>
@@ -27677,7 +27676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
         <v>612</v>
       </c>
@@ -27691,7 +27690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="956" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
         <v>620</v>
       </c>
@@ -27705,7 +27704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="957" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
         <v>658</v>
       </c>
@@ -27719,7 +27718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="958" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
         <v>670</v>
       </c>
@@ -27733,7 +27732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="959" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
         <v>674</v>
       </c>
@@ -27747,7 +27746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="960" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
         <v>680</v>
       </c>
@@ -27761,7 +27760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="961" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
         <v>812</v>
       </c>
@@ -27775,7 +27774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="962" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
         <v>814</v>
       </c>
@@ -27789,7 +27788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="963" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
         <v>828</v>
       </c>
@@ -27803,7 +27802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="964" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
         <v>844</v>
       </c>
@@ -27817,7 +27816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="965" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
         <v>846</v>
       </c>
@@ -27831,7 +27830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="966" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
         <v>930</v>
       </c>
@@ -27845,7 +27844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="967" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
         <v>1131</v>
       </c>
@@ -28839,7 +28838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1038" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1038" t="s">
         <v>4195</v>
       </c>
@@ -28853,7 +28852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1039" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1039" t="s">
         <v>4203</v>
       </c>
@@ -28867,7 +28866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1040" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1040" t="s">
         <v>4205</v>
       </c>
@@ -28881,7 +28880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1041" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1041" t="s">
         <v>20</v>
       </c>
@@ -28895,7 +28894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1042" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1042" t="s">
         <v>34</v>
       </c>
@@ -28909,7 +28908,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1043" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
         <v>67</v>
       </c>
@@ -28923,7 +28922,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1044" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
         <v>127</v>
       </c>
@@ -28937,7 +28936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1045" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
         <v>190</v>
       </c>
@@ -28951,7 +28950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1046" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
         <v>234</v>
       </c>
@@ -28965,7 +28964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1047" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
         <v>248</v>
       </c>
@@ -28979,7 +28978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1048" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
         <v>306</v>
       </c>
@@ -28993,7 +28992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1049" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
         <v>316</v>
       </c>
@@ -29007,7 +29006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1050" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
         <v>324</v>
       </c>
@@ -29021,7 +29020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1051" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
         <v>550</v>
       </c>
@@ -29035,7 +29034,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1052" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
         <v>588</v>
       </c>
@@ -29049,7 +29048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1053" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
         <v>614</v>
       </c>
@@ -29063,7 +29062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1054" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
         <v>618</v>
       </c>
@@ -29077,7 +29076,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1055" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
         <v>630</v>
       </c>
@@ -29091,7 +29090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1056" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
         <v>640</v>
       </c>
@@ -29105,7 +29104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1057" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
         <v>652</v>
       </c>
@@ -29119,7 +29118,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1058" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
         <v>662</v>
       </c>
@@ -29133,7 +29132,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1059" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
         <v>808</v>
       </c>
@@ -29147,7 +29146,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1060" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
         <v>810</v>
       </c>
@@ -29161,7 +29160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1061" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
         <v>822</v>
       </c>
@@ -29175,7 +29174,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1062" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
         <v>826</v>
       </c>
@@ -29189,7 +29188,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1063" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
         <v>830</v>
       </c>
@@ -29203,7 +29202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1064" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
         <v>838</v>
       </c>
@@ -29217,7 +29216,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1065" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
         <v>840</v>
       </c>
@@ -29231,7 +29230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1066" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
         <v>850</v>
       </c>
@@ -29245,7 +29244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1067" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1067" t="s">
         <v>858</v>
       </c>
@@ -29259,7 +29258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1068" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1068" t="s">
         <v>876</v>
       </c>
@@ -29273,7 +29272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1069" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1069" t="s">
         <v>880</v>
       </c>
@@ -29287,7 +29286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1070" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1070" t="s">
         <v>888</v>
       </c>
@@ -29301,7 +29300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1071" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1071" t="s">
         <v>896</v>
       </c>
@@ -29315,7 +29314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1072" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1072" t="s">
         <v>900</v>
       </c>
@@ -29329,7 +29328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1073" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
         <v>902</v>
       </c>
@@ -29343,7 +29342,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1074" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1074" t="s">
         <v>906</v>
       </c>
@@ -29357,7 +29356,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1075" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1075" t="s">
         <v>914</v>
       </c>
@@ -29371,7 +29370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1076" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1076" t="s">
         <v>916</v>
       </c>
@@ -29385,7 +29384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1077" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1077" t="s">
         <v>918</v>
       </c>
@@ -29399,7 +29398,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1078" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1078" t="s">
         <v>920</v>
       </c>
@@ -29413,7 +29412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1079" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1079" t="s">
         <v>924</v>
       </c>
@@ -29427,7 +29426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1080" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1080" t="s">
         <v>928</v>
       </c>
@@ -29441,7 +29440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1081" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1081" t="s">
         <v>934</v>
       </c>
@@ -29455,7 +29454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1082" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
         <v>936</v>
       </c>
@@ -29469,7 +29468,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1083" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1083" t="s">
         <v>1003</v>
       </c>
@@ -29483,7 +29482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1084" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1084" t="s">
         <v>1271</v>
       </c>
@@ -30295,7 +30294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1142" t="s">
         <v>4193</v>
       </c>
@@ -30309,7 +30308,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1143" t="s">
         <v>4233</v>
       </c>
@@ -30323,7 +30322,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="1144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1144" t="s">
         <v>166</v>
       </c>
@@ -30337,7 +30336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1145" t="s">
         <v>262</v>
       </c>
@@ -30351,7 +30350,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1146" t="s">
         <v>290</v>
       </c>
@@ -30365,7 +30364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1147" t="s">
         <v>310</v>
       </c>
@@ -30379,7 +30378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1148" t="s">
         <v>352</v>
       </c>
@@ -30393,7 +30392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1149" t="s">
         <v>414</v>
       </c>
@@ -30407,7 +30406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1150" t="s">
         <v>514</v>
       </c>
@@ -30421,7 +30420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1151" t="s">
         <v>556</v>
       </c>
@@ -30435,7 +30434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1152" t="s">
         <v>582</v>
       </c>
@@ -30449,7 +30448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1153" t="s">
         <v>586</v>
       </c>
@@ -30463,7 +30462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1154" t="s">
         <v>596</v>
       </c>
@@ -30477,7 +30476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1155" t="s">
         <v>608</v>
       </c>
@@ -30491,7 +30490,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1156" t="s">
         <v>610</v>
       </c>
@@ -30505,7 +30504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1157" t="s">
         <v>636</v>
       </c>
@@ -30519,7 +30518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1158" t="s">
         <v>638</v>
       </c>
@@ -30533,7 +30532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1159" t="s">
         <v>648</v>
       </c>
@@ -30547,7 +30546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1160" t="s">
         <v>696</v>
       </c>
@@ -30561,7 +30560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1161" t="s">
         <v>758</v>
       </c>
@@ -30575,7 +30574,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1162" t="s">
         <v>784</v>
       </c>
@@ -30589,7 +30588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1163" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1163" t="s">
         <v>798</v>
       </c>
@@ -30603,7 +30602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1164" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1164" t="s">
         <v>804</v>
       </c>
@@ -30617,7 +30616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1165" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1165" t="s">
         <v>818</v>
       </c>
@@ -30631,7 +30630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1166" t="s">
         <v>820</v>
       </c>
@@ -30645,7 +30644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1167" t="s">
         <v>832</v>
       </c>
@@ -30659,7 +30658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1168" t="s">
         <v>842</v>
       </c>
@@ -30673,7 +30672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1169" t="s">
         <v>848</v>
       </c>
@@ -30687,7 +30686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1170" t="s">
         <v>856</v>
       </c>
@@ -30701,7 +30700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1171" t="s">
         <v>866</v>
       </c>
@@ -30715,7 +30714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1172" t="s">
         <v>868</v>
       </c>
@@ -30729,7 +30728,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1173" t="s">
         <v>872</v>
       </c>
@@ -30743,7 +30742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1174" t="s">
         <v>886</v>
       </c>
@@ -30757,7 +30756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1175" t="s">
         <v>892</v>
       </c>
@@ -30771,7 +30770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1176" t="s">
         <v>908</v>
       </c>
@@ -30785,7 +30784,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1177" t="s">
         <v>910</v>
       </c>
@@ -30799,7 +30798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1178" t="s">
         <v>912</v>
       </c>
@@ -30813,7 +30812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
         <v>922</v>
       </c>
@@ -30827,7 +30826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
         <v>926</v>
       </c>
@@ -30841,7 +30840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
         <v>932</v>
       </c>
@@ -30855,7 +30854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
         <v>938</v>
       </c>
@@ -30869,7 +30868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
         <v>954</v>
       </c>
@@ -30883,7 +30882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
         <v>956</v>
       </c>
@@ -30897,7 +30896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
         <v>960</v>
       </c>
@@ -30911,7 +30910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
         <v>968</v>
       </c>
@@ -30925,7 +30924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
         <v>1047</v>
       </c>
@@ -30939,7 +30938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
         <v>1303</v>
       </c>
@@ -30953,7 +30952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
         <v>2061</v>
       </c>
@@ -32465,7 +32464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1297" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1297" t="s">
         <v>4179</v>
       </c>
@@ -32479,7 +32478,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1298" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1298" t="s">
         <v>4181</v>
       </c>
@@ -32493,7 +32492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1299" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1299" t="s">
         <v>4187</v>
       </c>
@@ -32507,7 +32506,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1300" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1300" t="s">
         <v>4191</v>
       </c>
@@ -32521,7 +32520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1301" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1301" t="s">
         <v>4197</v>
       </c>
@@ -32535,7 +32534,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1302" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1302" t="s">
         <v>4199</v>
       </c>
@@ -32549,7 +32548,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1303" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1303" t="s">
         <v>4207</v>
       </c>
@@ -32563,7 +32562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1304" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1304" t="s">
         <v>4211</v>
       </c>
@@ -32577,7 +32576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1305" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1305" t="s">
         <v>4215</v>
       </c>
@@ -32591,7 +32590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1306" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1306" t="s">
         <v>4223</v>
       </c>
@@ -32605,7 +32604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1307" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1307" t="s">
         <v>7</v>
       </c>
@@ -32619,7 +32618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1308" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1308" t="s">
         <v>60</v>
       </c>
@@ -32633,7 +32632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1309" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1309" t="s">
         <v>93</v>
       </c>
@@ -32647,7 +32646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1310" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1310" t="s">
         <v>107</v>
       </c>
@@ -32661,7 +32660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1311" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1311" t="s">
         <v>117</v>
       </c>
@@ -32675,7 +32674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1312" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1312" t="s">
         <v>121</v>
       </c>
@@ -32689,7 +32688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1313" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1313" t="s">
         <v>143</v>
       </c>
@@ -32703,7 +32702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1314" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1314" t="s">
         <v>170</v>
       </c>
@@ -32717,7 +32716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1315" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1315" t="s">
         <v>174</v>
       </c>
@@ -32731,7 +32730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1316" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1316" t="s">
         <v>188</v>
       </c>
@@ -32745,7 +32744,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1317" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1317" t="s">
         <v>192</v>
       </c>
@@ -32759,7 +32758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1318" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1318" t="s">
         <v>222</v>
       </c>
@@ -32773,7 +32772,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1319" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1319" t="s">
         <v>236</v>
       </c>
@@ -32787,7 +32786,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1320" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1320" t="s">
         <v>244</v>
       </c>
@@ -32801,7 +32800,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1321" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1321" t="s">
         <v>250</v>
       </c>
@@ -32815,7 +32814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1322" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1322" t="s">
         <v>260</v>
       </c>
@@ -32829,7 +32828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1323" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1323" t="s">
         <v>274</v>
       </c>
@@ -32843,7 +32842,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1324" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1324" t="s">
         <v>298</v>
       </c>
@@ -32857,7 +32856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1325" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1325" t="s">
         <v>322</v>
       </c>
@@ -32871,7 +32870,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1326" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1326" t="s">
         <v>368</v>
       </c>
@@ -32885,7 +32884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1327" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1327" t="s">
         <v>374</v>
       </c>
@@ -32899,7 +32898,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1328" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1328" t="s">
         <v>416</v>
       </c>
@@ -32913,7 +32912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1329" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1329" t="s">
         <v>434</v>
       </c>
@@ -32927,7 +32926,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1330" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1330" t="s">
         <v>500</v>
       </c>
@@ -32941,7 +32940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1331" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1331" t="s">
         <v>518</v>
       </c>
@@ -32955,7 +32954,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1332" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1332" t="s">
         <v>520</v>
       </c>
@@ -32969,7 +32968,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1333" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1333" t="s">
         <v>522</v>
       </c>
@@ -32983,7 +32982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1334" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1334" t="s">
         <v>524</v>
       </c>
@@ -32997,7 +32996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1335" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1335" t="s">
         <v>526</v>
       </c>
@@ -33011,7 +33010,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1336" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1336" t="s">
         <v>532</v>
       </c>
@@ -33025,7 +33024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1337" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1337" t="s">
         <v>560</v>
       </c>
@@ -33039,7 +33038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1338" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1338" t="s">
         <v>566</v>
       </c>
@@ -33053,7 +33052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1339" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1339" t="s">
         <v>570</v>
       </c>
@@ -33067,7 +33066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1340" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1340" t="s">
         <v>580</v>
       </c>
@@ -33081,7 +33080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1341" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1341" t="s">
         <v>616</v>
       </c>
@@ -33095,7 +33094,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1342" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1342" t="s">
         <v>626</v>
       </c>
@@ -33109,7 +33108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1343" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1343" t="s">
         <v>632</v>
       </c>
@@ -33123,7 +33122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1344" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1344" t="s">
         <v>642</v>
       </c>
@@ -33137,7 +33136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1345" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1345" t="s">
         <v>684</v>
       </c>
@@ -33151,7 +33150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1346" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1346" t="s">
         <v>688</v>
       </c>
@@ -33165,7 +33164,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1347" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1347" t="s">
         <v>690</v>
       </c>
@@ -33179,7 +33178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1348" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1348" t="s">
         <v>694</v>
       </c>
@@ -33193,7 +33192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1349" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1349" t="s">
         <v>704</v>
       </c>
@@ -33207,7 +33206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1350" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1350" t="s">
         <v>766</v>
       </c>
@@ -33221,7 +33220,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1351" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1351" t="s">
         <v>770</v>
       </c>
@@ -33235,7 +33234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1352" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1352" t="s">
         <v>774</v>
       </c>
@@ -33249,7 +33248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1353" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1353" t="s">
         <v>790</v>
       </c>
@@ -33263,7 +33262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1354" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1354" t="s">
         <v>792</v>
       </c>
@@ -33277,7 +33276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1355" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1355" t="s">
         <v>816</v>
       </c>
@@ -33291,7 +33290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1356" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1356" t="s">
         <v>834</v>
       </c>
@@ -33305,7 +33304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1357" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1357" t="s">
         <v>836</v>
       </c>
@@ -33319,7 +33318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1358" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1358" t="s">
         <v>884</v>
       </c>
@@ -33333,7 +33332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1359" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1359" t="s">
         <v>890</v>
       </c>
@@ -33347,7 +33346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1360" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1360" t="s">
         <v>898</v>
       </c>
@@ -33361,7 +33360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1361" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1361" t="s">
         <v>904</v>
       </c>
@@ -33375,7 +33374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1362" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1362" t="s">
         <v>940</v>
       </c>
@@ -33389,7 +33388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1363" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1363" t="s">
         <v>942</v>
       </c>
@@ -33403,7 +33402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1364" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1364" t="s">
         <v>983</v>
       </c>
@@ -33417,7 +33416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1365" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1365" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1365" t="s">
         <v>997</v>
       </c>
@@ -33431,7 +33430,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1366" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1366" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1366" t="s">
         <v>999</v>
       </c>
@@ -33445,7 +33444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1367" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1367" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1367" t="s">
         <v>1005</v>
       </c>
@@ -33459,7 +33458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1368" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1368" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1368" t="s">
         <v>1037</v>
       </c>
@@ -33473,7 +33472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1369" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1369" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1369" t="s">
         <v>1049</v>
       </c>
@@ -33487,7 +33486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1370" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1370" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1370" t="s">
         <v>1073</v>
       </c>
@@ -33501,7 +33500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1371" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1371" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1371" t="s">
         <v>1115</v>
       </c>
@@ -33515,7 +33514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1372" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1372" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1372" t="s">
         <v>1129</v>
       </c>
@@ -33529,7 +33528,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1373" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1373" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1373" t="s">
         <v>1199</v>
       </c>
@@ -33543,7 +33542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1374" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1374" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1374" t="s">
         <v>1247</v>
       </c>
@@ -33557,7 +33556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1375" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1375" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1375" t="s">
         <v>1291</v>
       </c>
@@ -33571,7 +33570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1376" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1376" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1376" t="s">
         <v>1501</v>
       </c>
@@ -33585,7 +33584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1377" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1377" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1377" t="s">
         <v>1503</v>
       </c>
@@ -33599,7 +33598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1378" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1378" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1378" t="s">
         <v>1505</v>
       </c>
@@ -33613,7 +33612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1379" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1379" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1379" t="s">
         <v>1507</v>
       </c>
@@ -33627,7 +33626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1380" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1380" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1380" t="s">
         <v>1509</v>
       </c>
@@ -33641,7 +33640,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1381" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1381" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
         <v>1587</v>
       </c>
@@ -33655,7 +33654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1382" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1382" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
         <v>1709</v>
       </c>
@@ -33669,7 +33668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1383" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1383" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
         <v>1975</v>
       </c>
@@ -33683,7 +33682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1384" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1384" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
         <v>1983</v>
       </c>
@@ -33697,7 +33696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1385" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1385" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
         <v>1989</v>
       </c>
@@ -33711,7 +33710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1386" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1386" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
         <v>2767</v>
       </c>
@@ -36035,7 +36034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1552" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1552" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1552" t="s">
         <v>4175</v>
       </c>
@@ -36049,7 +36048,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1553" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1553" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1553" t="s">
         <v>4209</v>
       </c>
@@ -36063,7 +36062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1554" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1554" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1554" t="s">
         <v>4213</v>
       </c>
@@ -36077,7 +36076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1555" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1555" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1555" t="s">
         <v>4217</v>
       </c>
@@ -36091,7 +36090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1556" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1556" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1556" t="s">
         <v>4219</v>
       </c>
@@ -36105,7 +36104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1557" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1557" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1557" t="s">
         <v>4221</v>
       </c>
@@ -36119,7 +36118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1558" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1558" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1558" t="s">
         <v>4243</v>
       </c>
@@ -36133,7 +36132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1559" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1559" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1559" t="s">
         <v>4245</v>
       </c>
@@ -36147,7 +36146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1560" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1560" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1560" t="s">
         <v>4249</v>
       </c>
@@ -36161,7 +36160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1561" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1561" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1561" t="s">
         <v>4251</v>
       </c>
@@ -36175,7 +36174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1562" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1562" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1562" t="s">
         <v>4255</v>
       </c>
@@ -36189,7 +36188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1563" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1563" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1563" t="s">
         <v>15</v>
       </c>
@@ -36203,7 +36202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1564" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1564" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1564" t="s">
         <v>22</v>
       </c>
@@ -36217,7 +36216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1565" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1565" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1565" t="s">
         <v>52</v>
       </c>
@@ -36231,7 +36230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1566" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1566" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1566" t="s">
         <v>89</v>
       </c>
@@ -36245,7 +36244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1567" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1567" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1567" t="s">
         <v>91</v>
       </c>
@@ -36259,7 +36258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1568" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1568" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1568" t="s">
         <v>95</v>
       </c>
@@ -36273,7 +36272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1569" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1569" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1569" t="s">
         <v>135</v>
       </c>
@@ -36287,7 +36286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1570" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1570" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1570" t="s">
         <v>146</v>
       </c>
@@ -36301,7 +36300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1571" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1571" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1571" t="s">
         <v>160</v>
       </c>
@@ -36315,7 +36314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1572" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1572" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1572" t="s">
         <v>162</v>
       </c>
@@ -36329,7 +36328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1573" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1573" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1573" t="s">
         <v>172</v>
       </c>
@@ -36343,7 +36342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1574" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1574" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1574" t="s">
         <v>176</v>
       </c>
@@ -36357,7 +36356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1575" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1575" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1575" t="s">
         <v>184</v>
       </c>
@@ -36371,7 +36370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1576" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1576" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1576" t="s">
         <v>194</v>
       </c>
@@ -36385,7 +36384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1577" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1577" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1577" t="s">
         <v>196</v>
       </c>
@@ -36399,7 +36398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1578" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1578" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1578" t="s">
         <v>204</v>
       </c>
@@ -36413,7 +36412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1579" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1579" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1579" t="s">
         <v>206</v>
       </c>
@@ -36427,7 +36426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1580" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1580" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1580" t="s">
         <v>208</v>
       </c>
@@ -36441,7 +36440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1581" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1581" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1581" t="s">
         <v>214</v>
       </c>
@@ -36455,7 +36454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1582" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1582" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1582" t="s">
         <v>228</v>
       </c>
@@ -36469,7 +36468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1583" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1583" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1583" t="s">
         <v>288</v>
       </c>
@@ -36483,7 +36482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1584" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1584" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1584" t="s">
         <v>296</v>
       </c>
@@ -36497,7 +36496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1585" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1585" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1585" t="s">
         <v>302</v>
       </c>
@@ -36511,7 +36510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1586" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1586" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1586" t="s">
         <v>312</v>
       </c>
@@ -36525,7 +36524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1587" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1587" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1587" t="s">
         <v>318</v>
       </c>
@@ -36539,7 +36538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1588" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1588" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1588" t="s">
         <v>326</v>
       </c>
@@ -36553,7 +36552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1589" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1589" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1589" t="s">
         <v>334</v>
       </c>
@@ -36567,7 +36566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1590" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1590" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
         <v>340</v>
       </c>
@@ -36581,7 +36580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1591" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1591" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
         <v>342</v>
       </c>
@@ -36595,7 +36594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1592" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1592" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
         <v>354</v>
       </c>
@@ -36609,7 +36608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1593" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1593" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
         <v>358</v>
       </c>
@@ -36623,7 +36622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1594" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1594" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
         <v>366</v>
       </c>
@@ -36637,7 +36636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1595" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1595" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
         <v>370</v>
       </c>
@@ -36651,7 +36650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1596" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1596" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
         <v>372</v>
       </c>
@@ -36665,7 +36664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1597" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1597" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
         <v>376</v>
       </c>
@@ -36679,7 +36678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1598" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1598" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
         <v>378</v>
       </c>
@@ -36693,7 +36692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1599" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1599" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
         <v>384</v>
       </c>
@@ -36707,7 +36706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1600" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1600" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
         <v>392</v>
       </c>
@@ -36721,7 +36720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1601" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1601" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
         <v>404</v>
       </c>
@@ -36735,7 +36734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1602" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1602" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
         <v>438</v>
       </c>
@@ -36749,7 +36748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1603" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1603" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
         <v>494</v>
       </c>
@@ -36763,7 +36762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1604" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1604" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
         <v>510</v>
       </c>
@@ -36777,7 +36776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1605" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1605" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
         <v>512</v>
       </c>
@@ -36791,7 +36790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1606" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1606" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
         <v>516</v>
       </c>
@@ -36805,7 +36804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1607" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1607" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
         <v>528</v>
       </c>
@@ -36819,7 +36818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1608" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1608" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
         <v>530</v>
       </c>
@@ -36833,7 +36832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1609" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1609" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
         <v>536</v>
       </c>
@@ -36847,7 +36846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1610" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1610" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
         <v>538</v>
       </c>
@@ -36861,7 +36860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1611" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1611" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
         <v>544</v>
       </c>
@@ -36875,7 +36874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1612" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1612" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1612" t="s">
         <v>564</v>
       </c>
@@ -36889,7 +36888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1613" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1613" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1613" t="s">
         <v>568</v>
       </c>
@@ -36903,7 +36902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1614" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1614" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1614" t="s">
         <v>574</v>
       </c>
@@ -36917,7 +36916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1615" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1615" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1615" t="s">
         <v>578</v>
       </c>
@@ -36931,7 +36930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1616" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1616" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1616" t="s">
         <v>600</v>
       </c>
@@ -36945,7 +36944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1617" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1617" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1617" t="s">
         <v>628</v>
       </c>
@@ -36959,7 +36958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1618" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1618" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1618" t="s">
         <v>656</v>
       </c>
@@ -36973,7 +36972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1619" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1619" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1619" t="s">
         <v>660</v>
       </c>
@@ -36987,7 +36986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1620" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1620" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1620" t="s">
         <v>666</v>
       </c>
@@ -37001,7 +37000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1621" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1621" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1621" t="s">
         <v>672</v>
       </c>
@@ -37015,7 +37014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1622" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1622" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1622" t="s">
         <v>678</v>
       </c>
@@ -37029,7 +37028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1623" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1623" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1623" t="s">
         <v>698</v>
       </c>
@@ -37043,7 +37042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1624" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1624" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1624" t="s">
         <v>714</v>
       </c>
@@ -37057,7 +37056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1625" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1625" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1625" t="s">
         <v>732</v>
       </c>
@@ -37071,7 +37070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1626" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1626" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1626" t="s">
         <v>736</v>
       </c>
@@ -37085,7 +37084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1627" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1627" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1627" t="s">
         <v>754</v>
       </c>
@@ -37099,7 +37098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1628" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1628" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1628" t="s">
         <v>756</v>
       </c>
@@ -37113,7 +37112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1629" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1629" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1629" t="s">
         <v>760</v>
       </c>
@@ -37127,7 +37126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1630" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1630" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1630" t="s">
         <v>764</v>
       </c>
@@ -37141,7 +37140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1631" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1631" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1631" t="s">
         <v>780</v>
       </c>
@@ -37155,7 +37154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1632" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1632" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1632" t="s">
         <v>788</v>
       </c>
@@ -37169,7 +37168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1633" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1633" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1633" t="s">
         <v>794</v>
       </c>
@@ -37183,7 +37182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1634" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1634" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1634" t="s">
         <v>800</v>
       </c>
@@ -37197,7 +37196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1635" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1635" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1635" t="s">
         <v>802</v>
       </c>
@@ -37211,7 +37210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1636" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1636" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1636" t="s">
         <v>806</v>
       </c>
@@ -37225,7 +37224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1637" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1637" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1637" t="s">
         <v>854</v>
       </c>
@@ -37239,7 +37238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1638" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1638" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1638" t="s">
         <v>862</v>
       </c>
@@ -37253,7 +37252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1639" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1639" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1639" t="s">
         <v>864</v>
       </c>
@@ -37267,7 +37266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1640" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1640" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1640" t="s">
         <v>944</v>
       </c>
@@ -37281,7 +37280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1641" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1641" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1641" t="s">
         <v>946</v>
       </c>
@@ -37295,7 +37294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1642" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1642" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1642" t="s">
         <v>962</v>
       </c>
@@ -37309,7 +37308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1643" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1643" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1643" t="s">
         <v>970</v>
       </c>
@@ -37323,7 +37322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1644" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1644" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1644" t="s">
         <v>972</v>
       </c>
@@ -37337,7 +37336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1645" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1645" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1645" t="s">
         <v>975</v>
       </c>
@@ -37351,7 +37350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1646" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1646" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1646" t="s">
         <v>977</v>
       </c>
@@ -37365,7 +37364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1647" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1647" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1647" t="s">
         <v>979</v>
       </c>
@@ -37379,7 +37378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1648" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1648" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1648" t="s">
         <v>981</v>
       </c>
@@ -37393,7 +37392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1649" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1649" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1649" t="s">
         <v>987</v>
       </c>
@@ -37407,7 +37406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1650" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1650" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1650" t="s">
         <v>989</v>
       </c>
@@ -37421,7 +37420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1651" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1651" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
         <v>991</v>
       </c>
@@ -37435,7 +37434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1652" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1652" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
         <v>993</v>
       </c>
@@ -37449,7 +37448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1653" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1653" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
         <v>1007</v>
       </c>
@@ -37463,7 +37462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1654" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1654" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
         <v>1011</v>
       </c>
@@ -37477,7 +37476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1655" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1655" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
         <v>1013</v>
       </c>
@@ -37491,7 +37490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1656" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1656" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
         <v>1015</v>
       </c>
@@ -37505,7 +37504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1657" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1657" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
         <v>1021</v>
       </c>
@@ -37519,7 +37518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1658" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1658" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
         <v>1039</v>
       </c>
@@ -37533,7 +37532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1659" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1659" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
         <v>1043</v>
       </c>
@@ -37547,7 +37546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1660" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1660" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
         <v>1059</v>
       </c>
@@ -37561,7 +37560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1661" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1661" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
         <v>1063</v>
       </c>
@@ -37575,7 +37574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1662" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1662" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
         <v>1065</v>
       </c>
@@ -37589,7 +37588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1663" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1663" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
         <v>1067</v>
       </c>
@@ -37603,7 +37602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1664" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1664" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
         <v>1069</v>
       </c>
@@ -37617,7 +37616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1665" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1665" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
         <v>1071</v>
       </c>
@@ -37631,7 +37630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1666" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1666" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
         <v>1075</v>
       </c>
@@ -37645,7 +37644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1667" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1667" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
         <v>1077</v>
       </c>
@@ -37659,7 +37658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1668" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1668" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
         <v>1079</v>
       </c>
@@ -37673,7 +37672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1669" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1669" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
         <v>1081</v>
       </c>
@@ -37687,7 +37686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1670" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1670" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
         <v>1083</v>
       </c>
@@ -37701,7 +37700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1671" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1671" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
         <v>1085</v>
       </c>
@@ -37715,7 +37714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1672" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1672" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
         <v>1155</v>
       </c>
@@ -37729,7 +37728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1673" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1673" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1673" t="s">
         <v>1157</v>
       </c>
@@ -37743,7 +37742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1674" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1674" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1674" t="s">
         <v>1231</v>
       </c>
@@ -37757,7 +37756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1675" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1675" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1675" t="s">
         <v>1233</v>
       </c>
@@ -37771,7 +37770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1676" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1676" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1676" t="s">
         <v>1235</v>
       </c>
@@ -37785,7 +37784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1677" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1677" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1677" t="s">
         <v>1237</v>
       </c>
@@ -37799,7 +37798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1678" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1678" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1678" t="s">
         <v>1239</v>
       </c>
@@ -37813,7 +37812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1679" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1679" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1679" t="s">
         <v>1241</v>
       </c>
@@ -37827,7 +37826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1680" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1680" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1680" t="s">
         <v>1243</v>
       </c>
@@ -37841,7 +37840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1681" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1681" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1681" t="s">
         <v>1251</v>
       </c>
@@ -37855,7 +37854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1682" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1682" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1682" t="s">
         <v>1253</v>
       </c>
@@ -37869,7 +37868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1683" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1683" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1683" t="s">
         <v>1259</v>
       </c>
@@ -37883,7 +37882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1684" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1684" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1684" t="s">
         <v>1261</v>
       </c>
@@ -37897,7 +37896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1685" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1685" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1685" t="s">
         <v>1263</v>
       </c>
@@ -37911,7 +37910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1686" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1686" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1686" t="s">
         <v>1265</v>
       </c>
@@ -37925,7 +37924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1687" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1687" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1687" t="s">
         <v>1267</v>
       </c>
@@ -37939,7 +37938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1688" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1688" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1688" t="s">
         <v>1269</v>
       </c>
@@ -37953,7 +37952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1689" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1689" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1689" t="s">
         <v>1275</v>
       </c>
@@ -37967,7 +37966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1690" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1690" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1690" t="s">
         <v>1277</v>
       </c>
@@ -37981,7 +37980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1691" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1691" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1691" t="s">
         <v>1279</v>
       </c>
@@ -37995,7 +37994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1692" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1692" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1692" t="s">
         <v>1285</v>
       </c>
@@ -38009,7 +38008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1693" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1693" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1693" t="s">
         <v>1289</v>
       </c>
@@ -38023,7 +38022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1694" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1694" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1694" t="s">
         <v>1293</v>
       </c>
@@ -38037,7 +38036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1695" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1695" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1695" t="s">
         <v>1295</v>
       </c>
@@ -38051,7 +38050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1696" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1696" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1696" t="s">
         <v>1297</v>
       </c>
@@ -38065,7 +38064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1697" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1697" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1697" t="s">
         <v>1299</v>
       </c>
@@ -38079,7 +38078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1698" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1698" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1698" t="s">
         <v>1301</v>
       </c>
@@ -38093,7 +38092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1699" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1699" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1699" t="s">
         <v>1345</v>
       </c>
@@ -38107,7 +38106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1700" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1700" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1700" t="s">
         <v>1353</v>
       </c>
@@ -38121,7 +38120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1701" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1701" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1701" t="s">
         <v>1355</v>
       </c>
@@ -38135,7 +38134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1702" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1702" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1702" t="s">
         <v>1357</v>
       </c>
@@ -38149,7 +38148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1703" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1703" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1703" t="s">
         <v>1361</v>
       </c>
@@ -38163,7 +38162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1704" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1704" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1704" t="s">
         <v>1363</v>
       </c>
@@ -38177,7 +38176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1705" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1705" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1705" t="s">
         <v>1463</v>
       </c>
@@ -38191,7 +38190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1706" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1706" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1706" t="s">
         <v>1511</v>
       </c>
@@ -38205,7 +38204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1707" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1707" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1707" t="s">
         <v>1513</v>
       </c>
@@ -38219,7 +38218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1708" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1708" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1708" t="s">
         <v>1515</v>
       </c>
@@ -38233,7 +38232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1709" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1709" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1709" t="s">
         <v>1517</v>
       </c>
@@ -38247,7 +38246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1710" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1710" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1710" t="s">
         <v>1519</v>
       </c>
@@ -38261,7 +38260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1711" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1711" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1711" t="s">
         <v>1557</v>
       </c>
@@ -38275,7 +38274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1712" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1712" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1712" t="s">
         <v>1633</v>
       </c>
@@ -38289,7 +38288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1713" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1713" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1713" t="s">
         <v>1635</v>
       </c>
@@ -38303,7 +38302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1714" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1714" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
         <v>1637</v>
       </c>
@@ -38317,7 +38316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1715" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1715" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
         <v>1707</v>
       </c>
@@ -38331,7 +38330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1716" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1716" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1716" t="s">
         <v>1753</v>
       </c>
@@ -38345,7 +38344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1717" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1717" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
         <v>1773</v>
       </c>
@@ -38359,7 +38358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1718" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1718" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
         <v>1807</v>
       </c>
@@ -38373,7 +38372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1719" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1719" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
         <v>1843</v>
       </c>
@@ -38387,7 +38386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1720" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1720" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1720" t="s">
         <v>1995</v>
       </c>
@@ -38401,7 +38400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1721" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1721" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
         <v>2059</v>
       </c>
@@ -38415,7 +38414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1722" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1722" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1722" t="s">
         <v>2175</v>
       </c>
@@ -38429,7 +38428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1723" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1723" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
         <v>2301</v>
       </c>
@@ -38443,7 +38442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1724" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1724" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1724" t="s">
         <v>2769</v>
       </c>
@@ -38457,7 +38456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1725" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1725" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
         <v>2909</v>
       </c>
@@ -38471,7 +38470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1726" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1726" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1726" t="s">
         <v>2979</v>
       </c>
@@ -38485,7 +38484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1727" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1727" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1727" t="s">
         <v>2997</v>
       </c>
@@ -38499,7 +38498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1728" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1728" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
         <v>3001</v>
       </c>
@@ -38513,7 +38512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1729" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1729" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1729" t="s">
         <v>3003</v>
       </c>
@@ -38527,7 +38526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1730" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1730" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1730" t="s">
         <v>3271</v>
       </c>
@@ -39045,7 +39044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1767" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1767" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
         <v>3483</v>
       </c>
@@ -40725,7 +40724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1887" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1887" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1887" t="s">
         <v>3723</v>
       </c>
@@ -41215,7 +41214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1922" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1922" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1922" t="s">
         <v>3793</v>
       </c>
@@ -41383,7 +41382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1934" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1934" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1934" t="s">
         <v>3817</v>
       </c>
@@ -42293,7 +42292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1999" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1999" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1999" t="s">
         <v>3947</v>
       </c>
@@ -42811,7 +42810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2036" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2036" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2036" t="s">
         <v>4021</v>
       </c>
@@ -42895,7 +42894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2042" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2042" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2042" t="s">
         <v>4033</v>
       </c>
@@ -43119,7 +43118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2058" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2058" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2058" t="s">
         <v>4065</v>
       </c>
@@ -43637,7 +43636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2095" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2095" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2095" t="s">
         <v>4139</v>
       </c>
@@ -43847,7 +43846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2110" t="s">
         <v>4169</v>
       </c>
@@ -43861,7 +43860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2111" t="s">
         <v>4171</v>
       </c>
@@ -43875,7 +43874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2112" t="s">
         <v>4173</v>
       </c>
@@ -43889,7 +43888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2113" t="s">
         <v>4177</v>
       </c>
@@ -43903,7 +43902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2114" t="s">
         <v>4183</v>
       </c>
@@ -43917,7 +43916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2115" t="s">
         <v>4185</v>
       </c>
@@ -43931,7 +43930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2116" t="s">
         <v>4189</v>
       </c>
@@ -43945,7 +43944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2117" t="s">
         <v>4201</v>
       </c>
@@ -43959,7 +43958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2118" t="s">
         <v>4225</v>
       </c>
@@ -43973,7 +43972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2119" t="s">
         <v>4227</v>
       </c>
@@ -43987,7 +43986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2120" t="s">
         <v>4229</v>
       </c>
@@ -44001,7 +44000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2121" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2121" t="s">
         <v>4231</v>
       </c>
@@ -44015,7 +44014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2122" t="s">
         <v>4235</v>
       </c>
@@ -44029,7 +44028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2123" t="s">
         <v>4237</v>
       </c>
@@ -44043,7 +44042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2124" t="s">
         <v>4239</v>
       </c>
@@ -44057,7 +44056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2125" t="s">
         <v>4241</v>
       </c>
@@ -44071,7 +44070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2126" t="s">
         <v>4247</v>
       </c>
@@ -44085,7 +44084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2127" t="s">
         <v>4253</v>
       </c>
@@ -44099,7 +44098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2128" t="s">
         <v>4257</v>
       </c>
@@ -44113,7 +44112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2129" t="s">
         <v>4259</v>
       </c>
@@ -44127,7 +44126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2130" t="s">
         <v>4261</v>
       </c>
@@ -44141,7 +44140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2131" t="s">
         <v>4263</v>
       </c>
@@ -44155,7 +44154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2132" t="s">
         <v>4265</v>
       </c>
@@ -44169,7 +44168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2133" t="s">
         <v>4267</v>
       </c>
@@ -44183,7 +44182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2134" t="s">
         <v>4269</v>
       </c>
@@ -44197,7 +44196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2135" t="s">
         <v>4271</v>
       </c>
@@ -44211,7 +44210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2136" t="s">
         <v>4273</v>
       </c>
@@ -44225,7 +44224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2137" t="s">
         <v>4275</v>
       </c>
@@ -44239,7 +44238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2138" t="s">
         <v>4277</v>
       </c>
@@ -44253,7 +44252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2139" t="s">
         <v>4279</v>
       </c>
@@ -44267,7 +44266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2140" t="s">
         <v>4281</v>
       </c>
@@ -44281,7 +44280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2141" t="s">
         <v>4283</v>
       </c>
@@ -44295,7 +44294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2142" t="s">
         <v>4285</v>
       </c>
@@ -44309,7 +44308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2143" t="s">
         <v>4287</v>
       </c>
@@ -44323,7 +44322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2144" t="s">
         <v>4289</v>
       </c>
@@ -44337,7 +44336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2145" t="s">
         <v>4291</v>
       </c>
@@ -44351,7 +44350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2146" t="s">
         <v>4293</v>
       </c>
@@ -44365,7 +44364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2147" t="s">
         <v>4295</v>
       </c>
@@ -44379,7 +44378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2148" t="s">
         <v>4297</v>
       </c>
@@ -44393,7 +44392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2149" t="s">
         <v>4299</v>
       </c>
@@ -44407,7 +44406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2150" t="s">
         <v>4301</v>
       </c>
@@ -44421,7 +44420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2151" t="s">
         <v>4303</v>
       </c>
@@ -44437,11 +44436,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D2151" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="people"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D2151">
       <sortCondition descending="1" ref="D1:D2151"/>
     </sortState>
